--- a/data/trans_orig/P6709-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P6709-Estudios-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>12904</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>6871</v>
+        <v>6911</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>22084</v>
+        <v>21736</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.07050940612951807</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03754481761887505</v>
+        <v>0.03776062461413467</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1206636652819424</v>
+        <v>0.1187653318811493</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>17</v>
@@ -763,19 +763,19 @@
         <v>18581</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11605</v>
+        <v>10916</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>29910</v>
+        <v>27255</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1365265708031594</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08527363616838475</v>
+        <v>0.0802081853672285</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2197664540748417</v>
+        <v>0.2002587836110173</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>29</v>
@@ -784,19 +784,19 @@
         <v>31485</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>21522</v>
+        <v>22027</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>44030</v>
+        <v>45789</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09866454914288129</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06744123989714389</v>
+        <v>0.06902680483077628</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1379753532566911</v>
+        <v>0.14348871773632</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>12062</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6811</v>
+        <v>6744</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>19590</v>
+        <v>19995</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06590814971365853</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03721743896980131</v>
+        <v>0.03685088573895976</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1070391785703995</v>
+        <v>0.1092501621043667</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -834,19 +834,19 @@
         <v>10210</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5230</v>
+        <v>4983</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>18944</v>
+        <v>18326</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07501825121516768</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03842568074989135</v>
+        <v>0.0366121118695964</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1391939896763347</v>
+        <v>0.1346536131530369</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>21</v>
@@ -855,19 +855,19 @@
         <v>22272</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14313</v>
+        <v>13855</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>33461</v>
+        <v>33195</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06979344548346696</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04485194466735324</v>
+        <v>0.04341758103365945</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1048560904461403</v>
+        <v>0.1040235646391148</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>40346</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>29006</v>
+        <v>29169</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52102</v>
+        <v>52546</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2204485844490821</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1584871932235409</v>
+        <v>0.1593796516644455</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2846833766600955</v>
+        <v>0.2871080133452396</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -905,19 +905,19 @@
         <v>21938</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13400</v>
+        <v>14346</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>33497</v>
+        <v>31884</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1611921335766649</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09845993280830385</v>
+        <v>0.1054116839073635</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.246125772235684</v>
+        <v>0.2342736601344229</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>56</v>
@@ -926,19 +926,19 @@
         <v>62284</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>48643</v>
+        <v>48213</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>77322</v>
+        <v>77081</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1951767652634973</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1524303073533689</v>
+        <v>0.1510831254662862</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2423019605338659</v>
+        <v>0.2415459321030473</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>30052</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>20515</v>
+        <v>20966</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>39950</v>
+        <v>41608</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1642019602784374</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1120915229679498</v>
+        <v>0.1145582811218375</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2182839230781003</v>
+        <v>0.2273462611151598</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>17</v>
@@ -976,19 +976,19 @@
         <v>18462</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>11145</v>
+        <v>11412</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>27451</v>
+        <v>27709</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1356521579951472</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08188977418772911</v>
+        <v>0.08384953176881607</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2016982802818201</v>
+        <v>0.2036003600857158</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>46</v>
@@ -997,19 +997,19 @@
         <v>48514</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>36205</v>
+        <v>36202</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>63024</v>
+        <v>63641</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1520259789217248</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1134542000436899</v>
+        <v>0.1134450401706226</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1974947206165969</v>
+        <v>0.1994300701923007</v>
       </c>
     </row>
     <row r="8">
@@ -1026,19 +1026,19 @@
         <v>87653</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>74298</v>
+        <v>74507</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>100968</v>
+        <v>101864</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4789318994293039</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4059604387116209</v>
+        <v>0.4071017156634976</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5516846391796763</v>
+        <v>0.5565805726720284</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>64</v>
@@ -1047,19 +1047,19 @@
         <v>66907</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>55085</v>
+        <v>54705</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>80147</v>
+        <v>78424</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4916108864098608</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4047495747949655</v>
+        <v>0.4019574664968978</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5888972033859721</v>
+        <v>0.5762326481730403</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>149</v>
@@ -1068,19 +1068,19 @@
         <v>154560</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>136868</v>
+        <v>137748</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>172552</v>
+        <v>170765</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4843392611884296</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.428900053236126</v>
+        <v>0.4316551238228268</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5407193427157108</v>
+        <v>0.5351208261439167</v>
       </c>
     </row>
     <row r="9">
@@ -1172,19 +1172,19 @@
         <v>73505</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56494</v>
+        <v>57825</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>93129</v>
+        <v>93625</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.08097411583562762</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06223475275623925</v>
+        <v>0.06370146371407147</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1025922397774334</v>
+        <v>0.1031390659854276</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -1193,19 +1193,19 @@
         <v>53892</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>39795</v>
+        <v>40841</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70796</v>
+        <v>69446</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09529058399308755</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07036554983639691</v>
+        <v>0.0722143284236182</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1251811588676194</v>
+        <v>0.1227942743804332</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>117</v>
@@ -1214,19 +1214,19 @@
         <v>127396</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>107478</v>
+        <v>107506</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>151141</v>
+        <v>153678</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08646969910833589</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0729502160409304</v>
+        <v>0.07296901323286013</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1025865578453203</v>
+        <v>0.1043082990613901</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>72066</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>55586</v>
+        <v>56702</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>89115</v>
+        <v>91558</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07938889378874248</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06123459816747626</v>
+        <v>0.06246383188482864</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09817035275838858</v>
+        <v>0.1008618502148128</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>41</v>
@@ -1264,19 +1264,19 @@
         <v>45369</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>33744</v>
+        <v>32235</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>61828</v>
+        <v>59587</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08022097371382163</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05966646629670496</v>
+        <v>0.05699676444834648</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1093235717561027</v>
+        <v>0.1053604275633508</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>108</v>
@@ -1285,19 +1285,19 @@
         <v>117435</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>96304</v>
+        <v>98137</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>139506</v>
+        <v>139591</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07970829969720591</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06536569362211067</v>
+        <v>0.06661022818654203</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.09468937765517153</v>
+        <v>0.09474665057739441</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>190830</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>167210</v>
+        <v>164776</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>217236</v>
+        <v>217748</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2102216178685939</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1842019187362849</v>
+        <v>0.1815205186167613</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2393109903328936</v>
+        <v>0.2398748602561082</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>108</v>
@@ -1335,19 +1335,19 @@
         <v>118616</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>99966</v>
+        <v>100109</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>139888</v>
+        <v>139364</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2097352599452655</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1767596390917381</v>
+        <v>0.1770122481360281</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2473482831908147</v>
+        <v>0.2464222957921762</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>290</v>
@@ -1356,19 +1356,19 @@
         <v>309446</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>278465</v>
+        <v>278784</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>344310</v>
+        <v>341585</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.21003492234854</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1890066605911265</v>
+        <v>0.1892232754072897</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2336991201400316</v>
+        <v>0.2318490448859124</v>
       </c>
     </row>
     <row r="13">
@@ -1385,19 +1385,19 @@
         <v>245846</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>220412</v>
+        <v>218933</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>273734</v>
+        <v>273975</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2708283234910555</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2428097684833755</v>
+        <v>0.2411804123678712</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3015502931650941</v>
+        <v>0.301816070604391</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>128</v>
@@ -1406,19 +1406,19 @@
         <v>132759</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>114260</v>
+        <v>113445</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>154129</v>
+        <v>154296</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2347438598100535</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2020342938883804</v>
+        <v>0.2005915046325627</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2725288941576853</v>
+        <v>0.2728250629432435</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>363</v>
@@ -1427,19 +1427,19 @@
         <v>378605</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>343184</v>
+        <v>346461</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>413460</v>
+        <v>411741</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2569767804408493</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2329349726981751</v>
+        <v>0.2351588661473319</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2806339150437331</v>
+        <v>0.2794675678929449</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>325510</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>294571</v>
+        <v>295815</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>355831</v>
+        <v>357680</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3585870490159805</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3245048821257605</v>
+        <v>0.3258748366917013</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.391989585042994</v>
+        <v>0.3940271280933601</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>200</v>
@@ -1477,19 +1477,19 @@
         <v>214914</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>189974</v>
+        <v>188888</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>239683</v>
+        <v>236475</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3800093225377718</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3359098589291409</v>
+        <v>0.3339905207985816</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4238057318249442</v>
+        <v>0.4181323383752619</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>509</v>
@@ -1498,19 +1498,19 @@
         <v>540424</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>505493</v>
+        <v>502249</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>579490</v>
+        <v>578733</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.366810298405069</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3431008830578904</v>
+        <v>0.3408994987907544</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3933265552776167</v>
+        <v>0.3928124077419621</v>
       </c>
     </row>
     <row r="15">
@@ -1602,19 +1602,19 @@
         <v>11193</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4927</v>
+        <v>5040</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21308</v>
+        <v>20232</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03539209889292746</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01557969494663323</v>
+        <v>0.01593538400190116</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06737483078153771</v>
+        <v>0.06397456823625293</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>17</v>
@@ -1623,19 +1623,19 @@
         <v>18574</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>11215</v>
+        <v>11342</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>29490</v>
+        <v>29339</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07907367508210132</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04774331401929156</v>
+        <v>0.04828517896429368</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.125543189747724</v>
+        <v>0.1249005697368625</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -1644,19 +1644,19 @@
         <v>29767</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>20155</v>
+        <v>20228</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42414</v>
+        <v>43581</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05400878817228587</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0365681985512772</v>
+        <v>0.03670075249464903</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07695483370209763</v>
+        <v>0.07907269683774892</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>15038</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>8372</v>
+        <v>8175</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>25070</v>
+        <v>25411</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04755127265693307</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02647143245062501</v>
+        <v>0.02584925985095047</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07927143329296624</v>
+        <v>0.08034848107094997</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>11</v>
@@ -1694,19 +1694,19 @@
         <v>12668</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>6424</v>
+        <v>6809</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>22936</v>
+        <v>23250</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.0539307323957834</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02734692130370969</v>
+        <v>0.02898809896223906</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.09764425935616572</v>
+        <v>0.09898007224070275</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>24</v>
@@ -1715,19 +1715,19 @@
         <v>27707</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>17852</v>
+        <v>18659</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>42267</v>
+        <v>41063</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05027014019994513</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03238959392302116</v>
+        <v>0.03385377314888569</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07668907021642934</v>
+        <v>0.0745032750214589</v>
       </c>
     </row>
     <row r="18">
@@ -1744,19 +1744,19 @@
         <v>63138</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>49009</v>
+        <v>49216</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>80005</v>
+        <v>77454</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1996414266311865</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1549668729846894</v>
+        <v>0.1556199146498913</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2529737802898073</v>
+        <v>0.2449076163063071</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>50</v>
@@ -1765,19 +1765,19 @@
         <v>55682</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>43301</v>
+        <v>42313</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>70370</v>
+        <v>71476</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2370472837071473</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1843417692782136</v>
+        <v>0.1801352593728047</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2995790483143898</v>
+        <v>0.3042846275771608</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>110</v>
@@ -1786,19 +1786,19 @@
         <v>118820</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>100527</v>
+        <v>98638</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>140510</v>
+        <v>138716</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2155834616757883</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1823928806534926</v>
+        <v>0.1789660413727164</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2549373092004651</v>
+        <v>0.2516833062709483</v>
       </c>
     </row>
     <row r="19">
@@ -1815,19 +1815,19 @@
         <v>78332</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>62691</v>
+        <v>61837</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>96069</v>
+        <v>93950</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.24768529834781</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1982288804413252</v>
+        <v>0.1955273777342967</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3037698628293926</v>
+        <v>0.2970676772210447</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>52</v>
@@ -1836,19 +1836,19 @@
         <v>56729</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>44416</v>
+        <v>43253</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71918</v>
+        <v>72258</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.241504289336117</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1890892214187553</v>
+        <v>0.1841362068571741</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3061684939870803</v>
+        <v>0.3076158432725656</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>125</v>
@@ -1857,19 +1857,19 @@
         <v>135061</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>114809</v>
+        <v>115782</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>157741</v>
+        <v>155801</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2450510086943125</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2083060534899508</v>
+        <v>0.2100714905086859</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2862017766239816</v>
+        <v>0.2826806779389028</v>
       </c>
     </row>
     <row r="20">
@@ -1886,19 +1886,19 @@
         <v>148555</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>131326</v>
+        <v>130991</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>168956</v>
+        <v>170657</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.469729903471143</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.415252093644895</v>
+        <v>0.4141901804260712</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5342358543577292</v>
+        <v>0.5396155934218476</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>80</v>
@@ -1907,19 +1907,19 @@
         <v>91244</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>74498</v>
+        <v>75449</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>106171</v>
+        <v>106766</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.388444019478851</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.317150775594322</v>
+        <v>0.3211987807469696</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4519878660115336</v>
+        <v>0.4545228775527272</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>211</v>
@@ -1928,19 +1928,19 @@
         <v>239800</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>214592</v>
+        <v>214455</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>262611</v>
+        <v>263455</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4350866012576682</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3893509133646004</v>
+        <v>0.3891020936582232</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4764750596155033</v>
+        <v>0.4780059181936706</v>
       </c>
     </row>
     <row r="21">
@@ -2032,19 +2032,19 @@
         <v>97602</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>79346</v>
+        <v>78150</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>120980</v>
+        <v>120788</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.06936750028353271</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05639231665878281</v>
+        <v>0.05554257236570297</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.08598243117824998</v>
+        <v>0.0858457573103157</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>85</v>
@@ -2053,19 +2053,19 @@
         <v>91047</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>74693</v>
+        <v>73529</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>111942</v>
+        <v>110910</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0972155233716404</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.07975434348009269</v>
+        <v>0.07851117099967365</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1195270659734979</v>
+        <v>0.1184242794327785</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>172</v>
@@ -2074,19 +2074,19 @@
         <v>188649</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>161649</v>
+        <v>158809</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>218114</v>
+        <v>217404</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.08049617519135249</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06897518883853264</v>
+        <v>0.0677636960229322</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09306893550937495</v>
+        <v>0.09276580557954089</v>
       </c>
     </row>
     <row r="23">
@@ -2103,19 +2103,19 @@
         <v>99167</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>81852</v>
+        <v>80929</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>120456</v>
+        <v>119892</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07047928613386802</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05817353041808059</v>
+        <v>0.05751756261776918</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08560981919152488</v>
+        <v>0.08520914358920793</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>61</v>
@@ -2124,19 +2124,19 @@
         <v>68247</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>53453</v>
+        <v>52258</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>86478</v>
+        <v>86663</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.0728710015073485</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05707514170601301</v>
+        <v>0.05579843610866501</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09233781482910224</v>
+        <v>0.09253484023732822</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>153</v>
@@ -2145,19 +2145,19 @@
         <v>167413</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>143529</v>
+        <v>143804</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>197441</v>
+        <v>195875</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07143506754712264</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06124376275333732</v>
+        <v>0.06136110121369504</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08424798435575372</v>
+        <v>0.08357955157280557</v>
       </c>
     </row>
     <row r="24">
@@ -2174,19 +2174,19 @@
         <v>294314</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>264736</v>
+        <v>262929</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>324766</v>
+        <v>324666</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2091737800942268</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1881519607345693</v>
+        <v>0.1868677620302894</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2308161827931584</v>
+        <v>0.2307450453781552</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>177</v>
@@ -2195,19 +2195,19 @@
         <v>196235</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>170739</v>
+        <v>170169</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>223593</v>
+        <v>223425</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2095312531797474</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1823072827594296</v>
+        <v>0.181698790749581</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2387423379781889</v>
+        <v>0.2385637887277716</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>456</v>
@@ -2216,19 +2216,19 @@
         <v>490549</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>449162</v>
+        <v>449418</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>534644</v>
+        <v>532767</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2093166341038083</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1916565666758651</v>
+        <v>0.1917660246669594</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2281316196766065</v>
+        <v>0.2273310143226006</v>
       </c>
     </row>
     <row r="25">
@@ -2245,19 +2245,19 @@
         <v>354230</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>321898</v>
+        <v>321913</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>387614</v>
+        <v>386420</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2517571703489355</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2287780666860155</v>
+        <v>0.2287886610209014</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2754834260942803</v>
+        <v>0.2746345324473</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>197</v>
@@ -2266,19 +2266,19 @@
         <v>207950</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>182465</v>
+        <v>183595</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>231171</v>
+        <v>238017</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2220396235703859</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1948282258143861</v>
+        <v>0.1960349780487098</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.24683371330884</v>
+        <v>0.2541434988622948</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>534</v>
@@ -2287,19 +2287,19 @@
         <v>562180</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>518681</v>
+        <v>517999</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>605707</v>
+        <v>606724</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2398813931668333</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2213203915379292</v>
+        <v>0.2210294142220324</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2584543635990486</v>
+        <v>0.258888112166595</v>
       </c>
     </row>
     <row r="26">
@@ -2316,19 +2316,19 @@
         <v>561718</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>524341</v>
+        <v>529880</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>599908</v>
+        <v>601754</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3992222631394369</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3726574551074423</v>
+        <v>0.3765940698804892</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.4263642035026174</v>
+        <v>0.4276762888327674</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>344</v>
@@ -2337,19 +2337,19 @@
         <v>373065</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>338138</v>
+        <v>343570</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>402128</v>
+        <v>404458</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.3983425983708778</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3610490692531875</v>
+        <v>0.3668489665233145</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4293742350888771</v>
+        <v>0.4318619067584353</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>869</v>
@@ -2358,19 +2358,19 @@
         <v>934783</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>887295</v>
+        <v>888482</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>984242</v>
+        <v>987370</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.3988707299908833</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3786074652130731</v>
+        <v>0.3791139881628322</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.419974521473965</v>
+        <v>0.4213094086461753</v>
       </c>
     </row>
     <row r="27">
@@ -2701,19 +2701,19 @@
         <v>27698</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18775</v>
+        <v>18773</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38371</v>
+        <v>38120</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1960208404534179</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1328737627387656</v>
+        <v>0.1328592022015122</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2715583979180896</v>
+        <v>0.2697839997456947</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -2722,19 +2722,19 @@
         <v>13384</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>7550</v>
+        <v>7469</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>20648</v>
+        <v>20638</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1936075950777535</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1092148641723486</v>
+        <v>0.1080407589644205</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2986921680988555</v>
+        <v>0.2985543190691538</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>39</v>
@@ -2743,19 +2743,19 @@
         <v>41081</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30259</v>
+        <v>29460</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>52757</v>
+        <v>53642</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1952280550764785</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1437972721896251</v>
+        <v>0.1399988647577762</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2507140144422365</v>
+        <v>0.25492063596151</v>
       </c>
     </row>
     <row r="5">
@@ -2772,19 +2772,19 @@
         <v>20588</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13195</v>
+        <v>12850</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>31226</v>
+        <v>31350</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1457078031338423</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09338037585985665</v>
+        <v>0.09093900198630316</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2209893109592629</v>
+        <v>0.2218703458750282</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>12</v>
@@ -2793,19 +2793,19 @@
         <v>12140</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6817</v>
+        <v>6936</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19318</v>
+        <v>19456</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1756168007732707</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09861619129697245</v>
+        <v>0.1003375992450197</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2794461450757484</v>
+        <v>0.281451794940568</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>31</v>
@@ -2814,19 +2814,19 @@
         <v>32728</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>23597</v>
+        <v>22560</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44602</v>
+        <v>44588</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1555333336027135</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1121400666295979</v>
+        <v>0.1072113671585733</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2119602932776555</v>
+        <v>0.2118935349559164</v>
       </c>
     </row>
     <row r="6">
@@ -2843,19 +2843,19 @@
         <v>24893</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16879</v>
+        <v>17086</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35402</v>
+        <v>35445</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1761733280566493</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1194582138398127</v>
+        <v>0.1209230447302202</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2505474148105765</v>
+        <v>0.250853509284724</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>17</v>
@@ -2864,19 +2864,19 @@
         <v>17266</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10872</v>
+        <v>10339</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>24588</v>
+        <v>24417</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2497657182791828</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1572768454571712</v>
+        <v>0.1495585464366784</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3556893444969464</v>
+        <v>0.3532136151947411</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>41</v>
@@ -2885,19 +2885,19 @@
         <v>42159</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>31749</v>
+        <v>30416</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>54907</v>
+        <v>54269</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2003494733466316</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1508798282392219</v>
+        <v>0.1445435468270915</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2609302750109354</v>
+        <v>0.2578979971139667</v>
       </c>
     </row>
     <row r="7">
@@ -2914,19 +2914,19 @@
         <v>24746</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16755</v>
+        <v>16310</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>35483</v>
+        <v>34948</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1751340906289466</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1185796688764933</v>
+        <v>0.1154262615709022</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2511225661649005</v>
+        <v>0.2473324846692499</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>11</v>
@@ -2935,19 +2935,19 @@
         <v>10761</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>5874</v>
+        <v>5876</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>17703</v>
+        <v>17690</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1556655773751682</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08497063946513704</v>
+        <v>0.08500647057557897</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2560891751139907</v>
+        <v>0.2559055764759153</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>35</v>
@@ -2956,19 +2956,19 @@
         <v>35507</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>25696</v>
+        <v>26189</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>47596</v>
+        <v>47870</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1687384075483993</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1221146666240836</v>
+        <v>0.1244584851505095</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2261871359551175</v>
+        <v>0.2274890669695259</v>
       </c>
     </row>
     <row r="8">
@@ -2985,19 +2985,19 @@
         <v>43374</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>32687</v>
+        <v>31753</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>56547</v>
+        <v>54286</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3069639377271439</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2313325212789823</v>
+        <v>0.2247199570943181</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4001929578190865</v>
+        <v>0.3841927218718981</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>15</v>
@@ -3006,19 +3006,19 @@
         <v>15578</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9341</v>
+        <v>9474</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>22752</v>
+        <v>22888</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2253443084946248</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1351316441690699</v>
+        <v>0.1370444943439659</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3291235892146947</v>
+        <v>0.3310902561368519</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>55</v>
@@ -3027,19 +3027,19 @@
         <v>58951</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>46307</v>
+        <v>45913</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>72807</v>
+        <v>71817</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2801507304257771</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2200615244919578</v>
+        <v>0.2181894679094742</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3459971376767702</v>
+        <v>0.3412917716184204</v>
       </c>
     </row>
     <row r="9">
@@ -3131,19 +3131,19 @@
         <v>105545</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>88192</v>
+        <v>86659</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>129403</v>
+        <v>128872</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1143255257198631</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09552865740255091</v>
+        <v>0.09386786118268371</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1401679935047865</v>
+        <v>0.1395922888682666</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>63</v>
@@ -3152,19 +3152,19 @@
         <v>63725</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>48170</v>
+        <v>50235</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>79941</v>
+        <v>81809</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09795635943076272</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07404635167882509</v>
+        <v>0.077219789782662</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1228835275535439</v>
+        <v>0.1257548893454656</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>157</v>
@@ -3173,19 +3173,19 @@
         <v>169270</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>145211</v>
+        <v>145631</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>197087</v>
+        <v>195924</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.107558955601743</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09227094465127678</v>
+        <v>0.09253773863682688</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1252346773232672</v>
+        <v>0.1244954291037839</v>
       </c>
     </row>
     <row r="11">
@@ -3202,19 +3202,19 @@
         <v>125752</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>105194</v>
+        <v>105313</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>148112</v>
+        <v>146864</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1362135613738429</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1139448329636457</v>
+        <v>0.1140735403662374</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1604334188767299</v>
+        <v>0.1590815693856084</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>101</v>
@@ -3223,19 +3223,19 @@
         <v>104808</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>85829</v>
+        <v>87654</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>123014</v>
+        <v>125012</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1611091141588402</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1319339800299798</v>
+        <v>0.134740159898439</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1890936660381524</v>
+        <v>0.1921661079805979</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>222</v>
@@ -3244,19 +3244,19 @@
         <v>230561</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>204015</v>
+        <v>203924</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>261384</v>
+        <v>260234</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1465047088015048</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1296365892500225</v>
+        <v>0.1295787099907322</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1660902698876658</v>
+        <v>0.1653600043506788</v>
       </c>
     </row>
     <row r="12">
@@ -3273,19 +3273,19 @@
         <v>259996</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>233688</v>
+        <v>233028</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>286713</v>
+        <v>289104</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2816242902291931</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2531275538979598</v>
+        <v>0.252412547875867</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3105642125048545</v>
+        <v>0.3131539084684354</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>179</v>
@@ -3294,19 +3294,19 @@
         <v>177597</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>154914</v>
+        <v>155562</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>200738</v>
+        <v>200258</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2729980232967469</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2381300799625739</v>
+        <v>0.2391268112368179</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3085692477618696</v>
+        <v>0.3078313285109546</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>424</v>
@@ -3315,19 +3315,19 @@
         <v>437593</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>403053</v>
+        <v>400508</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>472497</v>
+        <v>472032</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2780584250516315</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2561108045128245</v>
+        <v>0.2544932924364863</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3002372346421547</v>
+        <v>0.2999420464916849</v>
       </c>
     </row>
     <row r="13">
@@ -3344,19 +3344,19 @@
         <v>210898</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>186226</v>
+        <v>187656</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>238494</v>
+        <v>241883</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2284417049605336</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2017180692827032</v>
+        <v>0.2032670265818342</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2583342665398943</v>
+        <v>0.2620048705520449</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>141</v>
@@ -3365,19 +3365,19 @@
         <v>146410</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>124437</v>
+        <v>126300</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>168877</v>
+        <v>169641</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2250577142153037</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1912811229087255</v>
+        <v>0.1941460870785108</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2595942904757657</v>
+        <v>0.2607682834670316</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>341</v>
@@ -3386,19 +3386,19 @@
         <v>357308</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>322497</v>
+        <v>324114</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>389836</v>
+        <v>392016</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2270428548143343</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2049232944240615</v>
+        <v>0.205950690459374</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2477123193682907</v>
+        <v>0.2490973125017909</v>
       </c>
     </row>
     <row r="14">
@@ -3415,19 +3415,19 @@
         <v>221010</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>196222</v>
+        <v>193625</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>248347</v>
+        <v>247504</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2393949177165673</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2125454749743443</v>
+        <v>0.2097323819392176</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2690059418625681</v>
+        <v>0.2680928481697186</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>152</v>
@@ -3436,19 +3436,19 @@
         <v>158003</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>136421</v>
+        <v>136894</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>181133</v>
+        <v>181435</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2428787888983466</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2097025560727157</v>
+        <v>0.2104310369324424</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2784342798586001</v>
+        <v>0.2788971225633867</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>355</v>
@@ -3457,19 +3457,19 @@
         <v>379013</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>344534</v>
+        <v>348352</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>415804</v>
+        <v>413748</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2408350557307865</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2189264269355231</v>
+        <v>0.2213521221180058</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2642131085135755</v>
+        <v>0.262906946113186</v>
       </c>
     </row>
     <row r="15">
@@ -3561,19 +3561,19 @@
         <v>20898</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>12892</v>
+        <v>12382</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>30637</v>
+        <v>31300</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.0599748854018585</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03699840404084379</v>
+        <v>0.03553552120460228</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08792636710915416</v>
+        <v>0.08982970321479608</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>29</v>
@@ -3582,19 +3582,19 @@
         <v>31863</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>22203</v>
+        <v>22136</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>44322</v>
+        <v>45022</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1033002384044395</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07198054888321032</v>
+        <v>0.07176468012876712</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1436925854802282</v>
+        <v>0.1459616084446349</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>49</v>
@@ -3603,19 +3603,19 @@
         <v>52761</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>39201</v>
+        <v>39659</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>69636</v>
+        <v>67740</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08031895796597395</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05967618025621858</v>
+        <v>0.06037363475096839</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1060077966000391</v>
+        <v>0.1031214231957919</v>
       </c>
     </row>
     <row r="17">
@@ -3632,19 +3632,19 @@
         <v>41099</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>29252</v>
+        <v>29345</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54578</v>
+        <v>54816</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1179511814799361</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.08395112567332418</v>
+        <v>0.08421837349848585</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1566373064294066</v>
+        <v>0.1573200418010767</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>33</v>
@@ -3653,19 +3653,19 @@
         <v>33455</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>24367</v>
+        <v>24822</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44654</v>
+        <v>45907</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1084595223600424</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.07899766636704099</v>
+        <v>0.08047176226835702</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1447684113768412</v>
+        <v>0.148829952586588</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>69</v>
@@ -3674,19 +3674,19 @@
         <v>74553</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>58287</v>
+        <v>59786</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>93072</v>
+        <v>94746</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1134942298683136</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08873088991628385</v>
+        <v>0.09101324883653707</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1416860520726196</v>
+        <v>0.1442342718070163</v>
       </c>
     </row>
     <row r="18">
@@ -3703,19 +3703,19 @@
         <v>89795</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>74539</v>
+        <v>73273</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>110471</v>
+        <v>109107</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2577067410750612</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2139238208476864</v>
+        <v>0.2102885657404799</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3170456219974983</v>
+        <v>0.3131323721692767</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>68</v>
@@ -3724,19 +3724,19 @@
         <v>67664</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>54294</v>
+        <v>54917</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>84374</v>
+        <v>82838</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2193649944832065</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1760196096964366</v>
+        <v>0.1780409639407975</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2735398765908946</v>
+        <v>0.2685601983553629</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>147</v>
@@ -3745,19 +3745,19 @@
         <v>157459</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>136549</v>
+        <v>135088</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>181851</v>
+        <v>179756</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2397027960211536</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2078718131841497</v>
+        <v>0.2056475178114493</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.276835276554838</v>
+        <v>0.273646748207842</v>
       </c>
     </row>
     <row r="19">
@@ -3774,19 +3774,19 @@
         <v>82638</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>66020</v>
+        <v>66998</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>97573</v>
+        <v>99656</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2371656594180699</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1894755542269931</v>
+        <v>0.192280654844045</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2800302633975162</v>
+        <v>0.286007713993822</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>78</v>
@@ -3795,19 +3795,19 @@
         <v>76989</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>61968</v>
+        <v>62856</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>92962</v>
+        <v>93652</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2495972983576037</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2008982693441453</v>
+        <v>0.2037773775179644</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3013798542465293</v>
+        <v>0.3036191997700816</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>156</v>
@@ -3816,19 +3816,19 @@
         <v>159627</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>138322</v>
+        <v>138961</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>181143</v>
+        <v>183689</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2430031228695897</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2105708060853272</v>
+        <v>0.2115428852836675</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2757576337151624</v>
+        <v>0.2796337180416383</v>
       </c>
     </row>
     <row r="20">
@@ -3845,19 +3845,19 @@
         <v>114009</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>96545</v>
+        <v>96529</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>132360</v>
+        <v>131655</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3272015326250743</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2770780682846627</v>
+        <v>0.2770330719120089</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3798657341956086</v>
+        <v>0.3778420715802481</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>91</v>
@@ -3866,19 +3866,19 @@
         <v>98482</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>81673</v>
+        <v>82880</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>115118</v>
+        <v>116540</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.319277946394708</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2647810389206725</v>
+        <v>0.2686957432681272</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3732096397023826</v>
+        <v>0.3778204386010341</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>197</v>
@@ -3887,19 +3887,19 @@
         <v>212492</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>190279</v>
+        <v>185878</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>236020</v>
+        <v>236440</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3234808932749692</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2896663712787838</v>
+        <v>0.282965550985709</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3592992683002984</v>
+        <v>0.359937688406437</v>
       </c>
     </row>
     <row r="21">
@@ -3991,19 +3991,19 @@
         <v>154140</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>131805</v>
+        <v>132237</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>183366</v>
+        <v>181835</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1090921881875885</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09328451900694416</v>
+        <v>0.09358994979832569</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1297761842482395</v>
+        <v>0.1286926296812127</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>106</v>
@@ -4012,19 +4012,19 @@
         <v>108972</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>91881</v>
+        <v>87993</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>130409</v>
+        <v>128188</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1059909311268384</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08936801709381356</v>
+        <v>0.08558580714226199</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1268415259205879</v>
+        <v>0.1246810199831073</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>245</v>
@@ -4033,19 +4033,19 @@
         <v>263112</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>231559</v>
+        <v>232683</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>293564</v>
+        <v>296328</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1077860032892067</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09485994358729115</v>
+        <v>0.09532026395796819</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1202606800266573</v>
+        <v>0.1213929495964547</v>
       </c>
     </row>
     <row r="23">
@@ -4062,19 +4062,19 @@
         <v>187440</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>160389</v>
+        <v>164625</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>213302</v>
+        <v>214883</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1326594186905814</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1135143968589994</v>
+        <v>0.1165123783695159</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1509635134256166</v>
+        <v>0.1520825367225985</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>146</v>
@@ -4083,19 +4083,19 @@
         <v>150403</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>128966</v>
+        <v>128718</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>173763</v>
+        <v>173825</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1462888877149281</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1254382484602295</v>
+        <v>0.1251966823116156</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1690095867041234</v>
+        <v>0.1690699743661701</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>322</v>
@@ -4104,19 +4104,19 @@
         <v>337843</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>304738</v>
+        <v>306183</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>369593</v>
+        <v>373643</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1383998672454195</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.124838126512824</v>
+        <v>0.1254300802133478</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1514064712980039</v>
+        <v>0.1530657700733077</v>
       </c>
     </row>
     <row r="24">
@@ -4133,19 +4133,19 @@
         <v>374684</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>342655</v>
+        <v>338922</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>409519</v>
+        <v>407803</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2651806250144967</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2425122794248162</v>
+        <v>0.2398704975058509</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2898347574764576</v>
+        <v>0.2886202960456895</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>264</v>
@@ -4154,19 +4154,19 @@
         <v>262527</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>236647</v>
+        <v>236342</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>291280</v>
+        <v>291967</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2553452173784128</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.230172895982301</v>
+        <v>0.229876819193551</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2833117014668864</v>
+        <v>0.2839803314932968</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>612</v>
@@ -4175,19 +4175,19 @@
         <v>637211</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>594318</v>
+        <v>593740</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>680271</v>
+        <v>678190</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.261038156114942</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2434667283569902</v>
+        <v>0.2432302613803159</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2786780726758356</v>
+        <v>0.2778257984628792</v>
       </c>
     </row>
     <row r="25">
@@ -4204,19 +4204,19 @@
         <v>318281</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>287466</v>
+        <v>285141</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>350662</v>
+        <v>351156</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2252621284918791</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2034528503033064</v>
+        <v>0.2018075038151783</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2481794438342114</v>
+        <v>0.2485286833616046</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>230</v>
@@ -4225,19 +4225,19 @@
         <v>234160</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>204850</v>
+        <v>208701</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>263875</v>
+        <v>266915</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2277542285014747</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1992460239195922</v>
+        <v>0.2029915386204571</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2566560747446412</v>
+        <v>0.2596134600404091</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>532</v>
@@ -4246,19 +4246,19 @@
         <v>552441</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>508209</v>
+        <v>506827</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>591255</v>
+        <v>594361</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2263117491244246</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2081915983962142</v>
+        <v>0.2076256124985264</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2422120664249953</v>
+        <v>0.243484588845338</v>
       </c>
     </row>
     <row r="26">
@@ -4275,19 +4275,19 @@
         <v>378393</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>341906</v>
+        <v>348559</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>414173</v>
+        <v>415877</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2678056396154543</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2419821357123149</v>
+        <v>0.2466908613648574</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2931286679130566</v>
+        <v>0.2943347225100786</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>258</v>
@@ -4296,19 +4296,19 @@
         <v>272063</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>242597</v>
+        <v>245673</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>299319</v>
+        <v>300244</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2646207352783461</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2359606963694282</v>
+        <v>0.2389522836149132</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2911312974122606</v>
+        <v>0.292030162295046</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>607</v>
@@ -4317,19 +4317,19 @@
         <v>650456</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>608755</v>
+        <v>612265</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>692474</v>
+        <v>701350</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2664642242260072</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2493812426256049</v>
+        <v>0.2508191594817329</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2836771135229907</v>
+        <v>0.2873135068032092</v>
       </c>
     </row>
     <row r="27">
